--- a/Mini Project 2/Heuristic work.xlsx
+++ b/Mini Project 2/Heuristic work.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chanj\Documents\GitHub\COMP472\Mini Project 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F871161-0A7E-4F14-9879-8886E3F6992E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0CACF59-1926-4AF5-BC85-0D6EAB3EFB5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{CAE00161-FDC5-4EE1-B5BF-646EDDF57F0E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="2" xr2:uid="{CAE00161-FDC5-4EE1-B5BF-646EDDF57F0E}"/>
   </bookViews>
   <sheets>
     <sheet name="empty slots" sheetId="1" r:id="rId1"/>
     <sheet name="blocking" sheetId="2" r:id="rId2"/>
+    <sheet name="Cars around" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="23">
   <si>
     <t>A</t>
   </si>
@@ -70,6 +71,42 @@
   </si>
   <si>
     <t>E</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>cars around but only the ones in front (head and exit)</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -120,12 +157,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -580,28 +620,28 @@
       <c r="G11" t="s">
         <v>1</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="2"/>
+      <c r="I11" s="6"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G12" t="s">
         <v>3</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="2"/>
+      <c r="I12" s="6"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G13" t="s">
         <v>2</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I13" s="2"/>
+      <c r="I13" s="6"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C16">
@@ -730,28 +770,28 @@
       <c r="G25" t="s">
         <v>10</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="H25" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I25" s="2"/>
+      <c r="I25" s="6"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G26" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="H26" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I26" s="2"/>
+      <c r="I26" s="6"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G27" t="s">
         <v>2</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="H27" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I27" s="2"/>
+      <c r="I27" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -770,8 +810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{130E38D6-6044-4E8E-A8D7-363298DDC7A2}">
   <dimension ref="B2:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -908,28 +948,28 @@
       <c r="G11" t="s">
         <v>1</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="2"/>
+      <c r="I11" s="6"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G12" t="s">
         <v>3</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="2"/>
+      <c r="I12" s="6"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G13" t="s">
         <v>2</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I13" s="2"/>
+      <c r="I13" s="6"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C16">
@@ -1058,38 +1098,583 @@
       <c r="G25" t="s">
         <v>10</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="H25" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I25" s="2"/>
+      <c r="I25" s="6"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G26" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="H26" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I26" s="2"/>
+      <c r="I26" s="6"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G27" t="s">
         <v>2</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="H27" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I27" s="2"/>
+      <c r="I27" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="H27:I27"/>
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="H12:I12"/>
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="H25:I25"/>
     <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{254BF11F-0EE2-46A5-89DF-DEB2EF956700}">
+  <dimension ref="B2:L30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="2"/>
+      <c r="C2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2">
+        <v>3</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="2">
+        <v>18</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="5">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="5">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="5">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="5">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="5">
+        <v>5</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="5">
+        <v>6</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="5">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="5">
+        <v>2</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="5">
+        <v>3</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="5">
+        <v>4</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="5">
+        <v>5</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="5">
+        <v>6</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C30" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="5">
+        <v>1</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30" s="5">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Mini Project 2/Heuristic work.xlsx
+++ b/Mini Project 2/Heuristic work.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chanj\Documents\GitHub\COMP472\Mini Project 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0CACF59-1926-4AF5-BC85-0D6EAB3EFB5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E05CD7FB-9171-4EC2-8627-13A2CCC851E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="2" xr2:uid="{CAE00161-FDC5-4EE1-B5BF-646EDDF57F0E}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="23">
   <si>
     <t>A</t>
   </si>
@@ -157,15 +157,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -620,28 +621,28 @@
       <c r="G11" t="s">
         <v>1</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="6"/>
+      <c r="I11" s="8"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G12" t="s">
         <v>3</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="6"/>
+      <c r="I12" s="8"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G13" t="s">
         <v>2</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I13" s="6"/>
+      <c r="I13" s="8"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C16">
@@ -770,28 +771,28 @@
       <c r="G25" t="s">
         <v>10</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="H25" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I25" s="6"/>
+      <c r="I25" s="8"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G26" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="H26" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I26" s="6"/>
+      <c r="I26" s="8"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G27" t="s">
         <v>2</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="H27" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I27" s="6"/>
+      <c r="I27" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -948,28 +949,28 @@
       <c r="G11" t="s">
         <v>1</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="6"/>
+      <c r="I11" s="8"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G12" t="s">
         <v>3</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="6"/>
+      <c r="I12" s="8"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G13" t="s">
         <v>2</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I13" s="6"/>
+      <c r="I13" s="8"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C16">
@@ -1098,28 +1099,28 @@
       <c r="G25" t="s">
         <v>10</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="H25" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I25" s="6"/>
+      <c r="I25" s="8"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G26" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="H26" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I26" s="6"/>
+      <c r="I26" s="8"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G27" t="s">
         <v>2</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="H27" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I27" s="6"/>
+      <c r="I27" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1136,10 +1137,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{254BF11F-0EE2-46A5-89DF-DEB2EF956700}">
-  <dimension ref="B2:L30"/>
+  <dimension ref="B2:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1296,7 +1297,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
@@ -1315,8 +1316,8 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C12" s="5" t="s">
@@ -1337,7 +1338,7 @@
       <c r="H12" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="7"/>
+      <c r="I12" s="6"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="5">
@@ -1361,7 +1362,7 @@
       <c r="H13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I13" s="7"/>
+      <c r="I13" s="6"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="5">
@@ -1489,7 +1490,7 @@
         <v>5</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>6</v>
@@ -1673,6 +1674,202 @@
       <c r="G30" s="5">
         <v>5</v>
       </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B32" s="7"/>
+      <c r="C32" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I32" s="7"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="7">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I33" s="7"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="7">
+        <v>2</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I34" s="7"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="7">
+        <v>3</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="7">
+        <v>4</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I36" s="7"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="7">
+        <v>5</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I37" s="7"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="7">
+        <v>6</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I38" s="7"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="7"/>
+      <c r="C40" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="7">
+        <v>1</v>
+      </c>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G40" s="7">
+        <v>5</v>
+      </c>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
